--- a/assets uarm/2022 2 UARM Etica PCrit/boceto cronograma.xlsx
+++ b/assets uarm/2022 2 UARM Etica PCrit/boceto cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\uarm 2022 B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitData\ZabData\zaboltar.github.io\assets uarm\2022 2 UARM Etica PCrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Semana</t>
   </si>
@@ -62,15 +62,6 @@
     <t>ctrl2</t>
   </si>
   <si>
-    <t>moderna</t>
-  </si>
-  <si>
-    <t>kant1</t>
-  </si>
-  <si>
-    <t>kant2 fmc</t>
-  </si>
-  <si>
     <t>ctrl 3</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>Bernstein</t>
   </si>
   <si>
-    <t>clifford</t>
-  </si>
-  <si>
     <t>rawls</t>
   </si>
   <si>
@@ -104,13 +92,16 @@
     <t>lunes</t>
   </si>
   <si>
-    <t>rawls?</t>
-  </si>
-  <si>
     <t>Todorov / rawls</t>
   </si>
   <si>
     <t>kant clifford</t>
+  </si>
+  <si>
+    <t>moderna/Kant</t>
+  </si>
+  <si>
+    <t>kant fmc</t>
   </si>
 </sst>
 </file>
@@ -445,20 +436,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -470,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -487,7 +482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -501,10 +496,10 @@
         <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -518,10 +513,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -534,11 +529,11 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -548,14 +543,14 @@
       <c r="D7" s="1">
         <v>44827</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -566,16 +561,13 @@
         <v>44834</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -586,13 +578,13 @@
         <v>44841</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -602,14 +594,11 @@
       <c r="D10" s="1">
         <v>44848</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
@@ -619,14 +608,14 @@
       <c r="D11" s="1">
         <v>44855</v>
       </c>
-      <c r="E11" t="s">
-        <v>2</v>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
@@ -636,14 +625,11 @@
       <c r="D12" s="1">
         <v>44862</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
@@ -654,13 +640,13 @@
         <v>44869</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
@@ -671,13 +657,13 @@
         <v>44876</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
@@ -688,13 +674,13 @@
         <v>44883</v>
       </c>
       <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
@@ -705,10 +691,10 @@
         <v>44890</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -722,7 +708,7 @@
         <v>44897</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -739,7 +725,7 @@
         <v>44904</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
